--- a/Diccionario_de_datos-PF.xlsx
+++ b/Diccionario_de_datos-PF.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a633e1179848eddb/Documentos/Henry/PROYECTO FINAL local/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juli\Desktop\Data Science\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1165" documentId="11_BF20BDBC2242ABD1991A1720F88AB87664F10EB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F26C0FB6-487D-4CC5-BB5B-24A9B92E610C}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="648" windowWidth="11652" windowHeight="11568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="645" windowWidth="11655" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="Dicc.Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="226">
   <si>
     <t>Descripción</t>
   </si>
@@ -68,9 +67,6 @@
     <t xml:space="preserve">name </t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -200,9 +196,6 @@
     <t>"-95.646202"</t>
   </si>
   <si>
-    <t>g_5_estados_seleccionados</t>
-  </si>
-  <si>
     <t xml:space="preserve">PK </t>
   </si>
   <si>
@@ -263,9 +256,6 @@
     <t>"2018-08-03"</t>
   </si>
   <si>
-    <t>g_address_v5</t>
-  </si>
-  <si>
     <t>cod_postal</t>
   </si>
   <si>
@@ -278,9 +268,6 @@
     <t>Nombre del negocio/comercio</t>
   </si>
   <si>
-    <t>Breve descripción del negocio/comercio</t>
-  </si>
-  <si>
     <t>Promedio de la puntuación del negocio/comercio.</t>
   </si>
   <si>
@@ -293,9 +280,6 @@
     <t>ID único del estado ubicación del negocio/establecimiento.</t>
   </si>
   <si>
-    <t>g_sitios_v4</t>
-  </si>
-  <si>
     <t>ID único de la categoría general del negocio/establecimiento (ésta abarca varias subcategorías)</t>
   </si>
   <si>
@@ -305,9 +289,6 @@
     <t>"0x864e9a2ecc616685:0xe03d4b3d1837e3d5"</t>
   </si>
   <si>
-    <t>Cuban sandwiches, stews &amp; cocktails in relaxed spot with upstairs gift shop carrying cigars.</t>
-  </si>
-  <si>
     <t>"3.8"</t>
   </si>
   <si>
@@ -329,12 +310,6 @@
     <t>PK,FK</t>
   </si>
   <si>
-    <t>g_relative_results_v4</t>
-  </si>
-  <si>
-    <t>g_horarios_v3</t>
-  </si>
-  <si>
     <t>relative_results</t>
   </si>
   <si>
@@ -353,9 +328,6 @@
     <t>atributo</t>
   </si>
   <si>
-    <t>g_misc_v4</t>
-  </si>
-  <si>
     <t>Categoría general de los servicios que ofrece el establecimiento.</t>
   </si>
   <si>
@@ -720,16 +692,34 @@
   </si>
   <si>
     <t>Google API Place</t>
+  </si>
+  <si>
+    <t>v0_address</t>
+  </si>
+  <si>
+    <t>v0_horarios</t>
+  </si>
+  <si>
+    <t>v2.g_sitios</t>
+  </si>
+  <si>
+    <t>v0_estados_reviews</t>
+  </si>
+  <si>
+    <t>v0_relative_results</t>
+  </si>
+  <si>
+    <t>v0_misc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2138,6 +2128,9 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,16 +2178,13 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="3" xr:uid="{0BF319AA-7EB7-4ED2-8C2F-24E5AF3C3028}"/>
+    <cellStyle name="Hipervínculo 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4AC6115F-25F4-4153-ACED-A7784E21C32F}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2424,37 +2414,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DU120"/>
+  <dimension ref="A1:DU119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2"/>
+    <col min="1" max="1" width="12.7109375" style="2"/>
     <col min="2" max="2" width="28" style="47" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="47" customWidth="1"/>
     <col min="6" max="6" width="37" style="2" customWidth="1"/>
-    <col min="7" max="7" width="52.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="12.6640625" style="2"/>
+    <col min="7" max="7" width="52.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="4" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:125" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="B1" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="151" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D1" s="152" t="s">
         <v>2</v>
@@ -2470,12 +2460,12 @@
         <v>3</v>
       </c>
       <c r="I1" s="154" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:125" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
-        <v>213</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:125" ht="33" customHeight="1" thickBot="1">
+      <c r="A2" s="163" t="s">
+        <v>204</v>
       </c>
       <c r="B2" s="142" t="s">
         <v>4</v>
@@ -2484,236 +2474,236 @@
         <v>6</v>
       </c>
       <c r="D2" s="144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="146" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G2" s="147">
         <v>5701</v>
       </c>
       <c r="H2" s="148" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I2" s="149">
         <v>45566</v>
       </c>
     </row>
-    <row r="3" spans="1:125" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="163"/>
+    <row r="3" spans="1:125" ht="17.45" customHeight="1" thickBot="1">
+      <c r="A3" s="164"/>
       <c r="B3" s="57"/>
       <c r="C3" s="76" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="78"/>
       <c r="F3" s="73" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G3" s="79" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I3" s="75">
         <v>45566</v>
       </c>
     </row>
-    <row r="4" spans="1:125" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="163"/>
+    <row r="4" spans="1:125" ht="46.15" customHeight="1" thickBot="1">
+      <c r="A4" s="164"/>
       <c r="B4" s="57"/>
       <c r="C4" s="80" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="73" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G4" s="81" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H4" s="74" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I4" s="75">
         <v>45566</v>
       </c>
     </row>
-    <row r="5" spans="1:125" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="164"/>
+    <row r="5" spans="1:125" ht="52.15" customHeight="1" thickBot="1">
+      <c r="A5" s="165"/>
       <c r="B5" s="58"/>
       <c r="C5" s="82" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="84"/>
       <c r="F5" s="85" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G5" s="86" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H5" s="74" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I5" s="75">
         <v>45566</v>
       </c>
     </row>
-    <row r="6" spans="1:125" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="168" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="165" t="s">
-        <v>118</v>
+    <row r="6" spans="1:125" ht="16.149999999999999" customHeight="1">
+      <c r="A6" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="166" t="s">
+        <v>109</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I6" s="62">
         <v>45566</v>
       </c>
     </row>
-    <row r="7" spans="1:125" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169"/>
-      <c r="B7" s="166"/>
+    <row r="7" spans="1:125" ht="45" customHeight="1">
+      <c r="A7" s="170"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I7" s="66">
         <v>45566</v>
       </c>
     </row>
-    <row r="8" spans="1:125" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
-      <c r="B8" s="166"/>
+    <row r="8" spans="1:125" ht="16.899999999999999" customHeight="1">
+      <c r="A8" s="170"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="63" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I8" s="66">
         <v>45566</v>
       </c>
     </row>
-    <row r="9" spans="1:125" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
-      <c r="B9" s="166"/>
+    <row r="9" spans="1:125" ht="45" customHeight="1">
+      <c r="A9" s="170"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="63" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="H9" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I9" s="66">
         <v>45566</v>
       </c>
     </row>
-    <row r="10" spans="1:125" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="169"/>
-      <c r="B10" s="167"/>
+    <row r="10" spans="1:125" ht="45" customHeight="1" thickBot="1">
+      <c r="A10" s="170"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="67" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="39" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I10" s="70">
         <v>45566</v>
       </c>
     </row>
-    <row r="11" spans="1:125" s="46" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
+    <row r="11" spans="1:125" s="46" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A11" s="170"/>
       <c r="B11" s="48" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I11" s="62">
         <v>45566</v>
@@ -2835,26 +2825,26 @@
       <c r="DT11" s="2"/>
       <c r="DU11" s="2"/>
     </row>
-    <row r="12" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
+    <row r="12" spans="1:125" s="46" customFormat="1" ht="12.75">
+      <c r="A12" s="170"/>
       <c r="B12" s="49"/>
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I12" s="66">
         <v>45566</v>
@@ -2976,24 +2966,24 @@
       <c r="DT12" s="2"/>
       <c r="DU12" s="2"/>
     </row>
-    <row r="13" spans="1:125" s="46" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169"/>
+    <row r="13" spans="1:125" s="46" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A13" s="170"/>
       <c r="B13" s="49"/>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I13" s="66">
         <v>45566</v>
@@ -3115,24 +3105,24 @@
       <c r="DT13" s="2"/>
       <c r="DU13" s="2"/>
     </row>
-    <row r="14" spans="1:125" s="46" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
+    <row r="14" spans="1:125" s="46" customFormat="1" ht="12.75">
+      <c r="A14" s="170"/>
       <c r="B14" s="49"/>
       <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I14" s="66">
         <v>45566</v>
@@ -3254,24 +3244,24 @@
       <c r="DT14" s="2"/>
       <c r="DU14" s="2"/>
     </row>
-    <row r="15" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
+    <row r="15" spans="1:125" s="46" customFormat="1" ht="43.15" customHeight="1">
+      <c r="A15" s="170"/>
       <c r="B15" s="49"/>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I15" s="66">
         <v>45566</v>
@@ -3393,24 +3383,26 @@
       <c r="DT15" s="2"/>
       <c r="DU15" s="2"/>
     </row>
-    <row r="16" spans="1:125" s="46" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
+    <row r="16" spans="1:125" s="46" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A16" s="170"/>
       <c r="B16" s="49"/>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="F16" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="G16" s="9">
+        <v>6</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I16" s="66">
         <v>45566</v>
@@ -3532,28 +3524,28 @@
       <c r="DT16" s="2"/>
       <c r="DU16" s="2"/>
     </row>
-    <row r="17" spans="1:125" s="46" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="169"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="9">
-        <v>6</v>
-      </c>
-      <c r="H17" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="66">
+    <row r="17" spans="1:125" s="46" customFormat="1" ht="39" thickBot="1">
+      <c r="A17" s="170"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="40">
+        <v>7</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="70">
         <v>45566</v>
       </c>
       <c r="J17" s="2"/>
@@ -3673,28 +3665,30 @@
       <c r="DT17" s="2"/>
       <c r="DU17" s="2"/>
     </row>
-    <row r="18" spans="1:125" s="46" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="169"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="40">
-        <v>7</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" s="70">
+    <row r="18" spans="1:125" s="46" customFormat="1" ht="12.75">
+      <c r="A18" s="170"/>
+      <c r="B18" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="62">
         <v>45566</v>
       </c>
       <c r="J18" s="2"/>
@@ -3814,30 +3808,28 @@
       <c r="DT18" s="2"/>
       <c r="DU18" s="2"/>
     </row>
-    <row r="19" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
-      <c r="B19" s="48" t="s">
+    <row r="19" spans="1:125" s="46" customFormat="1" ht="12.75">
+      <c r="A19" s="170"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" s="62">
+      <c r="F19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="66">
         <v>45566</v>
       </c>
       <c r="J19" s="2"/>
@@ -3957,26 +3949,24 @@
       <c r="DT19" s="2"/>
       <c r="DU19" s="2"/>
     </row>
-    <row r="20" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="169"/>
+    <row r="20" spans="1:125" s="46" customFormat="1" ht="12.75">
+      <c r="A20" s="170"/>
       <c r="B20" s="49"/>
       <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I20" s="66">
         <v>45566</v>
@@ -4098,24 +4088,24 @@
       <c r="DT20" s="2"/>
       <c r="DU20" s="2"/>
     </row>
-    <row r="21" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
+    <row r="21" spans="1:125" s="46" customFormat="1" ht="25.5">
+      <c r="A21" s="170"/>
       <c r="B21" s="49"/>
       <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="E21" s="16"/>
       <c r="F21" s="15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I21" s="66">
         <v>45566</v>
@@ -4237,24 +4227,24 @@
       <c r="DT21" s="2"/>
       <c r="DU21" s="2"/>
     </row>
-    <row r="22" spans="1:125" s="46" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
+    <row r="22" spans="1:125" s="46" customFormat="1" ht="12.75">
+      <c r="A22" s="170"/>
       <c r="B22" s="49"/>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I22" s="66">
         <v>45566</v>
@@ -4376,24 +4366,24 @@
       <c r="DT22" s="2"/>
       <c r="DU22" s="2"/>
     </row>
-    <row r="23" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
+    <row r="23" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="170"/>
       <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I23" s="66">
         <v>45566</v>
@@ -4515,24 +4505,24 @@
       <c r="DT23" s="2"/>
       <c r="DU23" s="2"/>
     </row>
-    <row r="24" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
+    <row r="24" spans="1:125" s="46" customFormat="1" ht="31.15" customHeight="1">
+      <c r="A24" s="170"/>
       <c r="B24" s="49"/>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4</v>
       </c>
       <c r="H24" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I24" s="66">
         <v>45566</v>
@@ -4654,24 +4644,24 @@
       <c r="DT24" s="2"/>
       <c r="DU24" s="2"/>
     </row>
-    <row r="25" spans="1:125" s="46" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
+    <row r="25" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="170"/>
       <c r="B25" s="49"/>
       <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="9">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="H25" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I25" s="66">
         <v>45566</v>
@@ -4793,24 +4783,24 @@
       <c r="DT25" s="2"/>
       <c r="DU25" s="2"/>
     </row>
-    <row r="26" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="169"/>
+    <row r="26" spans="1:125" s="46" customFormat="1" ht="45" customHeight="1">
+      <c r="A26" s="170"/>
       <c r="B26" s="49"/>
       <c r="C26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>73</v>
+      <c r="G26" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="H26" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I26" s="66">
         <v>45566</v>
@@ -4932,26 +4922,26 @@
       <c r="DT26" s="2"/>
       <c r="DU26" s="2"/>
     </row>
-    <row r="27" spans="1:125" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="169"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="5" t="s">
+    <row r="27" spans="1:125" s="46" customFormat="1" ht="33.6" customHeight="1" thickBot="1">
+      <c r="A27" s="170"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="66">
+      <c r="D27" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="70">
         <v>45566</v>
       </c>
       <c r="J27" s="2"/>
@@ -5071,26 +5061,30 @@
       <c r="DT27" s="2"/>
       <c r="DU27" s="2"/>
     </row>
-    <row r="28" spans="1:125" s="46" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="169"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="70">
+    <row r="28" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="170"/>
+      <c r="B28" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="62">
         <v>45566</v>
       </c>
       <c r="J28" s="2"/>
@@ -5210,30 +5204,26 @@
       <c r="DT28" s="2"/>
       <c r="DU28" s="2"/>
     </row>
-    <row r="29" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="169"/>
-      <c r="B29" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" s="62">
+    <row r="29" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="170"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="66">
         <v>45566</v>
       </c>
       <c r="J29" s="2"/>
@@ -5353,26 +5343,26 @@
       <c r="DT29" s="2"/>
       <c r="DU29" s="2"/>
     </row>
-    <row r="30" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="169"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="66">
+    <row r="30" spans="1:125" s="46" customFormat="1" ht="31.9" customHeight="1" thickBot="1">
+      <c r="A30" s="170"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="70">
         <v>45566</v>
       </c>
       <c r="J30" s="2"/>
@@ -5492,26 +5482,30 @@
       <c r="DT30" s="2"/>
       <c r="DU30" s="2"/>
     </row>
-    <row r="31" spans="1:125" s="46" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="169"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" s="70">
+    <row r="31" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="170"/>
+      <c r="B31" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="62">
         <v>45566</v>
       </c>
       <c r="J31" s="2"/>
@@ -5631,30 +5625,26 @@
       <c r="DT31" s="2"/>
       <c r="DU31" s="2"/>
     </row>
-    <row r="32" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="169"/>
-      <c r="B32" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="62">
+    <row r="32" spans="1:125" s="46" customFormat="1" ht="67.900000000000006" customHeight="1" thickBot="1">
+      <c r="A32" s="170"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="70">
         <v>45566</v>
       </c>
       <c r="J32" s="2"/>
@@ -5774,26 +5764,30 @@
       <c r="DT32" s="2"/>
       <c r="DU32" s="2"/>
     </row>
-    <row r="33" spans="1:125" s="46" customFormat="1" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="169"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H33" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" s="70">
+    <row r="33" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="170"/>
+      <c r="B33" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="62">
         <v>45566</v>
       </c>
       <c r="J33" s="2"/>
@@ -5913,30 +5907,26 @@
       <c r="DT33" s="2"/>
       <c r="DU33" s="2"/>
     </row>
-    <row r="34" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="169"/>
-      <c r="B34" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="33" t="s">
+    <row r="34" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="170"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" s="62">
+      <c r="E34" s="12"/>
+      <c r="F34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="9">
+        <v>6</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="66">
         <v>45566</v>
       </c>
       <c r="J34" s="2"/>
@@ -6056,24 +6046,24 @@
       <c r="DT34" s="2"/>
       <c r="DU34" s="2"/>
     </row>
-    <row r="35" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="169"/>
+    <row r="35" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="170"/>
       <c r="B35" s="49"/>
       <c r="C35" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="9">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="H35" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I35" s="66">
         <v>45566</v>
@@ -6195,24 +6185,24 @@
       <c r="DT35" s="2"/>
       <c r="DU35" s="2"/>
     </row>
-    <row r="36" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="169"/>
+    <row r="36" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="170"/>
       <c r="B36" s="49"/>
       <c r="C36" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>47</v>
+      <c r="G36" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="H36" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I36" s="66">
         <v>45566</v>
@@ -6334,14 +6324,14 @@
       <c r="DT36" s="2"/>
       <c r="DU36" s="2"/>
     </row>
-    <row r="37" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="169"/>
+    <row r="37" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="170"/>
       <c r="B37" s="49"/>
       <c r="C37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="8" t="s">
@@ -6351,7 +6341,7 @@
         <v>49</v>
       </c>
       <c r="H37" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I37" s="66">
         <v>45566</v>
@@ -6473,14 +6463,14 @@
       <c r="DT37" s="2"/>
       <c r="DU37" s="2"/>
     </row>
-    <row r="38" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="169"/>
+    <row r="38" spans="1:125" s="46" customFormat="1" ht="29.45" customHeight="1">
+      <c r="A38" s="170"/>
       <c r="B38" s="49"/>
       <c r="C38" s="5" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="8" t="s">
@@ -6490,7 +6480,7 @@
         <v>50</v>
       </c>
       <c r="H38" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I38" s="66">
         <v>45566</v>
@@ -6612,11 +6602,11 @@
       <c r="DT38" s="2"/>
       <c r="DU38" s="2"/>
     </row>
-    <row r="39" spans="1:125" s="46" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="169"/>
+    <row r="39" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="170"/>
       <c r="B39" s="49"/>
       <c r="C39" s="5" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>37</v>
@@ -6625,11 +6615,11 @@
       <c r="F39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="21" t="s">
         <v>51</v>
       </c>
       <c r="H39" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I39" s="66">
         <v>45566</v>
@@ -6751,26 +6741,26 @@
       <c r="DT39" s="2"/>
       <c r="DU39" s="2"/>
     </row>
-    <row r="40" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="169"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="5" t="s">
+    <row r="40" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A40" s="170"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="8" t="s">
+      <c r="D40" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I40" s="66">
+      <c r="G40" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="70">
         <v>45566</v>
       </c>
       <c r="J40" s="2"/>
@@ -6890,26 +6880,30 @@
       <c r="DT40" s="2"/>
       <c r="DU40" s="2"/>
     </row>
-    <row r="41" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="169"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="I41" s="70">
+    <row r="41" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="170"/>
+      <c r="B41" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="62">
         <v>45566</v>
       </c>
       <c r="J41" s="2"/>
@@ -7029,30 +7023,26 @@
       <c r="DT41" s="2"/>
       <c r="DU41" s="2"/>
     </row>
-    <row r="42" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="169"/>
-      <c r="B42" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="62">
+    <row r="42" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="170"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="156" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="66">
         <v>45566</v>
       </c>
       <c r="J42" s="2"/>
@@ -7172,24 +7162,22 @@
       <c r="DT42" s="2"/>
       <c r="DU42" s="2"/>
     </row>
-    <row r="43" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="169"/>
+    <row r="43" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="170"/>
       <c r="B43" s="49"/>
       <c r="C43" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="155" t="s">
-        <v>94</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="156"/>
       <c r="G43" s="24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H43" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I43" s="66">
         <v>45566</v>
@@ -7311,22 +7299,22 @@
       <c r="DT43" s="2"/>
       <c r="DU43" s="2"/>
     </row>
-    <row r="44" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="169"/>
+    <row r="44" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="170"/>
       <c r="B44" s="49"/>
       <c r="C44" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="25"/>
-      <c r="F44" s="155"/>
+      <c r="F44" s="156"/>
       <c r="G44" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H44" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I44" s="66">
         <v>45566</v>
@@ -7448,22 +7436,22 @@
       <c r="DT44" s="2"/>
       <c r="DU44" s="2"/>
     </row>
-    <row r="45" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="169"/>
+    <row r="45" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="170"/>
       <c r="B45" s="49"/>
       <c r="C45" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="25"/>
-      <c r="F45" s="155"/>
+      <c r="F45" s="156"/>
       <c r="G45" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H45" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I45" s="66">
         <v>45566</v>
@@ -7585,22 +7573,22 @@
       <c r="DT45" s="2"/>
       <c r="DU45" s="2"/>
     </row>
-    <row r="46" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="169"/>
+    <row r="46" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A46" s="170"/>
       <c r="B46" s="49"/>
       <c r="C46" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="25"/>
-      <c r="F46" s="155"/>
+      <c r="F46" s="156"/>
       <c r="G46" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H46" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I46" s="66">
         <v>45566</v>
@@ -7722,22 +7710,22 @@
       <c r="DT46" s="2"/>
       <c r="DU46" s="2"/>
     </row>
-    <row r="47" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="169"/>
+    <row r="47" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A47" s="170"/>
       <c r="B47" s="49"/>
       <c r="C47" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="155"/>
+      <c r="F47" s="156"/>
       <c r="G47" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H47" s="65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I47" s="66">
         <v>45566</v>
@@ -7859,24 +7847,24 @@
       <c r="DT47" s="2"/>
       <c r="DU47" s="2"/>
     </row>
-    <row r="48" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="169"/>
+    <row r="48" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A48" s="171"/>
       <c r="B48" s="49"/>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>37</v>
+      <c r="D48" s="52" t="s">
+        <v>36</v>
       </c>
       <c r="E48" s="25"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I48" s="66">
+      <c r="F48" s="157"/>
+      <c r="G48" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="72">
         <v>45566</v>
       </c>
       <c r="J48" s="2"/>
@@ -7996,165 +7984,169 @@
       <c r="DT48" s="2"/>
       <c r="DU48" s="2"/>
     </row>
-    <row r="49" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="170"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="52" t="s">
+    <row r="49" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A49" s="121"/>
+      <c r="B49" s="128" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="132" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="134" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="H49" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="I49" s="72">
-        <v>45566</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="2"/>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="2"/>
-      <c r="AU49" s="2"/>
-      <c r="AV49" s="2"/>
-      <c r="AW49" s="2"/>
-      <c r="AX49" s="2"/>
-      <c r="AY49" s="2"/>
-      <c r="AZ49" s="2"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="2"/>
-      <c r="BD49" s="2"/>
-      <c r="BE49" s="2"/>
-      <c r="BF49" s="2"/>
-      <c r="BG49" s="2"/>
-      <c r="BH49" s="2"/>
-      <c r="BI49" s="2"/>
-      <c r="BJ49" s="2"/>
-      <c r="BK49" s="2"/>
-      <c r="BL49" s="2"/>
-      <c r="BM49" s="2"/>
-      <c r="BN49" s="2"/>
-      <c r="BO49" s="2"/>
-      <c r="BP49" s="2"/>
-      <c r="BQ49" s="2"/>
-      <c r="BR49" s="2"/>
-      <c r="BS49" s="2"/>
-      <c r="BT49" s="2"/>
-      <c r="BU49" s="2"/>
-      <c r="BV49" s="2"/>
-      <c r="BW49" s="2"/>
-      <c r="BX49" s="2"/>
-      <c r="BY49" s="2"/>
-      <c r="BZ49" s="2"/>
-      <c r="CA49" s="2"/>
-      <c r="CB49" s="2"/>
-      <c r="CC49" s="2"/>
-      <c r="CD49" s="2"/>
-      <c r="CE49" s="2"/>
-      <c r="CF49" s="2"/>
-      <c r="CG49" s="2"/>
-      <c r="CH49" s="2"/>
-      <c r="CI49" s="2"/>
-      <c r="CJ49" s="2"/>
-      <c r="CK49" s="2"/>
-      <c r="CL49" s="2"/>
-      <c r="CM49" s="2"/>
-      <c r="CN49" s="2"/>
-      <c r="CO49" s="2"/>
-      <c r="CP49" s="2"/>
-      <c r="CQ49" s="2"/>
-      <c r="CR49" s="2"/>
-      <c r="CS49" s="2"/>
-      <c r="CT49" s="2"/>
-      <c r="CU49" s="2"/>
-      <c r="CV49" s="2"/>
-      <c r="CW49" s="2"/>
-      <c r="CX49" s="2"/>
-      <c r="CY49" s="2"/>
-      <c r="CZ49" s="2"/>
-      <c r="DA49" s="2"/>
-      <c r="DB49" s="2"/>
-      <c r="DC49" s="2"/>
-      <c r="DD49" s="2"/>
-      <c r="DE49" s="2"/>
-      <c r="DF49" s="2"/>
-      <c r="DG49" s="2"/>
-      <c r="DH49" s="2"/>
-      <c r="DI49" s="2"/>
-      <c r="DJ49" s="2"/>
-      <c r="DK49" s="2"/>
-      <c r="DL49" s="2"/>
-      <c r="DM49" s="2"/>
-      <c r="DN49" s="2"/>
-      <c r="DO49" s="2"/>
-      <c r="DP49" s="2"/>
-      <c r="DQ49" s="2"/>
-      <c r="DR49" s="2"/>
-      <c r="DS49" s="2"/>
-      <c r="DT49" s="2"/>
-      <c r="DU49" s="2"/>
-    </row>
-    <row r="50" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="136" t="s">
+        <v>210</v>
+      </c>
+      <c r="G49" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="122">
+        <v>45597</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4"/>
+      <c r="AX49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+      <c r="BG49" s="4"/>
+      <c r="BH49" s="4"/>
+      <c r="BI49" s="4"/>
+      <c r="BJ49" s="4"/>
+      <c r="BK49" s="4"/>
+      <c r="BL49" s="4"/>
+      <c r="BM49" s="4"/>
+      <c r="BN49" s="4"/>
+      <c r="BO49" s="4"/>
+      <c r="BP49" s="4"/>
+      <c r="BQ49" s="4"/>
+      <c r="BR49" s="4"/>
+      <c r="BS49" s="4"/>
+      <c r="BT49" s="4"/>
+      <c r="BU49" s="4"/>
+      <c r="BV49" s="4"/>
+      <c r="BW49" s="4"/>
+      <c r="BX49" s="4"/>
+      <c r="BY49" s="4"/>
+      <c r="BZ49" s="4"/>
+      <c r="CA49" s="4"/>
+      <c r="CB49" s="4"/>
+      <c r="CC49" s="4"/>
+      <c r="CD49" s="4"/>
+      <c r="CE49" s="4"/>
+      <c r="CF49" s="4"/>
+      <c r="CG49" s="4"/>
+      <c r="CH49" s="4"/>
+      <c r="CI49" s="4"/>
+      <c r="CJ49" s="4"/>
+      <c r="CK49" s="4"/>
+      <c r="CL49" s="4"/>
+      <c r="CM49" s="4"/>
+      <c r="CN49" s="4"/>
+      <c r="CO49" s="4"/>
+      <c r="CP49" s="4"/>
+      <c r="CQ49" s="4"/>
+      <c r="CR49" s="4"/>
+      <c r="CS49" s="4"/>
+      <c r="CT49" s="4"/>
+      <c r="CU49" s="4"/>
+      <c r="CV49" s="4"/>
+      <c r="CW49" s="4"/>
+      <c r="CX49" s="4"/>
+      <c r="CY49" s="4"/>
+      <c r="CZ49" s="4"/>
+      <c r="DA49" s="4"/>
+      <c r="DB49" s="4"/>
+      <c r="DC49" s="4"/>
+      <c r="DD49" s="4"/>
+      <c r="DE49" s="4"/>
+      <c r="DF49" s="4"/>
+      <c r="DG49" s="4"/>
+      <c r="DH49" s="4"/>
+      <c r="DI49" s="4"/>
+      <c r="DJ49" s="4"/>
+      <c r="DK49" s="4"/>
+      <c r="DL49" s="4"/>
+      <c r="DM49" s="4"/>
+      <c r="DN49" s="4"/>
+      <c r="DO49" s="4"/>
+      <c r="DP49" s="4"/>
+      <c r="DQ49" s="4"/>
+      <c r="DR49" s="4"/>
+      <c r="DS49" s="4"/>
+      <c r="DT49" s="4"/>
+      <c r="DU49" s="4"/>
+    </row>
+    <row r="50" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="121"/>
-      <c r="B50" s="128" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="132" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="134" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="136" t="s">
+      <c r="B50" s="123"/>
+      <c r="C50" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="138" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="155" t="s">
         <v>219</v>
-      </c>
-      <c r="G50" s="137" t="s">
-        <v>223</v>
-      </c>
-      <c r="H50" s="171" t="s">
-        <v>228</v>
       </c>
       <c r="I50" s="122">
         <v>45597</v>
@@ -8276,28 +8268,26 @@
       <c r="DT50" s="4"/>
       <c r="DU50" s="4"/>
     </row>
-    <row r="51" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="121"/>
       <c r="B51" s="123"/>
       <c r="C51" s="118" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="D51" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="138" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="120" t="s">
+        <v>77</v>
       </c>
       <c r="G51" s="119" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="171" t="s">
-        <v>228</v>
-      </c>
-      <c r="I51" s="122">
+        <v>215</v>
+      </c>
+      <c r="H51" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="I51" s="124">
         <v>45597</v>
       </c>
       <c r="J51" s="4"/>
@@ -8417,26 +8407,26 @@
       <c r="DT51" s="4"/>
       <c r="DU51" s="4"/>
     </row>
-    <row r="52" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="121"/>
       <c r="B52" s="123"/>
       <c r="C52" s="118" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D52" s="130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="120" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="G52" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="H52" s="171" t="s">
-        <v>228</v>
-      </c>
-      <c r="I52" s="124">
+        <v>216</v>
+      </c>
+      <c r="H52" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="125">
         <v>45597</v>
       </c>
       <c r="J52" s="4"/>
@@ -8556,26 +8546,26 @@
       <c r="DT52" s="4"/>
       <c r="DU52" s="4"/>
     </row>
-    <row r="53" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="121"/>
       <c r="B53" s="123"/>
       <c r="C53" s="118" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D53" s="130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="120" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G53" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="H53" s="171" t="s">
-        <v>228</v>
-      </c>
-      <c r="I53" s="125">
+        <v>217</v>
+      </c>
+      <c r="H53" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="I53" s="126">
         <v>45597</v>
       </c>
       <c r="J53" s="4"/>
@@ -8695,26 +8685,26 @@
       <c r="DT53" s="4"/>
       <c r="DU53" s="4"/>
     </row>
-    <row r="54" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="121"/>
-      <c r="B54" s="123"/>
-      <c r="C54" s="118" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="G54" s="119" t="s">
-        <v>226</v>
-      </c>
-      <c r="H54" s="171" t="s">
-        <v>228</v>
-      </c>
-      <c r="I54" s="126">
+      <c r="B54" s="129"/>
+      <c r="C54" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="139"/>
+      <c r="F54" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="G54" s="141">
+        <v>45598</v>
+      </c>
+      <c r="H54" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="I54" s="127">
         <v>45597</v>
       </c>
       <c r="J54" s="4"/>
@@ -8834,860 +8824,742 @@
       <c r="DT54" s="4"/>
       <c r="DU54" s="4"/>
     </row>
-    <row r="55" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="121"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="133" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="131" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="139"/>
-      <c r="F55" s="140" t="s">
-        <v>222</v>
-      </c>
-      <c r="G55" s="141">
-        <v>45598</v>
-      </c>
-      <c r="H55" s="171" t="s">
-        <v>228</v>
-      </c>
-      <c r="I55" s="127">
-        <v>45597</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="4"/>
-      <c r="AM55" s="4"/>
-      <c r="AN55" s="4"/>
-      <c r="AO55" s="4"/>
-      <c r="AP55" s="4"/>
-      <c r="AQ55" s="4"/>
-      <c r="AR55" s="4"/>
-      <c r="AS55" s="4"/>
-      <c r="AT55" s="4"/>
-      <c r="AU55" s="4"/>
-      <c r="AV55" s="4"/>
-      <c r="AW55" s="4"/>
-      <c r="AX55" s="4"/>
-      <c r="AY55" s="4"/>
-      <c r="AZ55" s="4"/>
-      <c r="BA55" s="4"/>
-      <c r="BB55" s="4"/>
-      <c r="BC55" s="4"/>
-      <c r="BD55" s="4"/>
-      <c r="BE55" s="4"/>
-      <c r="BF55" s="4"/>
-      <c r="BG55" s="4"/>
-      <c r="BH55" s="4"/>
-      <c r="BI55" s="4"/>
-      <c r="BJ55" s="4"/>
-      <c r="BK55" s="4"/>
-      <c r="BL55" s="4"/>
-      <c r="BM55" s="4"/>
-      <c r="BN55" s="4"/>
-      <c r="BO55" s="4"/>
-      <c r="BP55" s="4"/>
-      <c r="BQ55" s="4"/>
-      <c r="BR55" s="4"/>
-      <c r="BS55" s="4"/>
-      <c r="BT55" s="4"/>
-      <c r="BU55" s="4"/>
-      <c r="BV55" s="4"/>
-      <c r="BW55" s="4"/>
-      <c r="BX55" s="4"/>
-      <c r="BY55" s="4"/>
-      <c r="BZ55" s="4"/>
-      <c r="CA55" s="4"/>
-      <c r="CB55" s="4"/>
-      <c r="CC55" s="4"/>
-      <c r="CD55" s="4"/>
-      <c r="CE55" s="4"/>
-      <c r="CF55" s="4"/>
-      <c r="CG55" s="4"/>
-      <c r="CH55" s="4"/>
-      <c r="CI55" s="4"/>
-      <c r="CJ55" s="4"/>
-      <c r="CK55" s="4"/>
-      <c r="CL55" s="4"/>
-      <c r="CM55" s="4"/>
-      <c r="CN55" s="4"/>
-      <c r="CO55" s="4"/>
-      <c r="CP55" s="4"/>
-      <c r="CQ55" s="4"/>
-      <c r="CR55" s="4"/>
-      <c r="CS55" s="4"/>
-      <c r="CT55" s="4"/>
-      <c r="CU55" s="4"/>
-      <c r="CV55" s="4"/>
-      <c r="CW55" s="4"/>
-      <c r="CX55" s="4"/>
-      <c r="CY55" s="4"/>
-      <c r="CZ55" s="4"/>
-      <c r="DA55" s="4"/>
-      <c r="DB55" s="4"/>
-      <c r="DC55" s="4"/>
-      <c r="DD55" s="4"/>
-      <c r="DE55" s="4"/>
-      <c r="DF55" s="4"/>
-      <c r="DG55" s="4"/>
-      <c r="DH55" s="4"/>
-      <c r="DI55" s="4"/>
-      <c r="DJ55" s="4"/>
-      <c r="DK55" s="4"/>
-      <c r="DL55" s="4"/>
-      <c r="DM55" s="4"/>
-      <c r="DN55" s="4"/>
-      <c r="DO55" s="4"/>
-      <c r="DP55" s="4"/>
-      <c r="DQ55" s="4"/>
-      <c r="DR55" s="4"/>
-      <c r="DS55" s="4"/>
-      <c r="DT55" s="4"/>
-      <c r="DU55" s="4"/>
-    </row>
-    <row r="56" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="159" t="s">
-        <v>208</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="101" t="s">
-        <v>182</v>
-      </c>
-      <c r="H56" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="I56" s="103">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:125" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="160"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="109" t="s">
-        <v>184</v>
-      </c>
-      <c r="G57" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="H57" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="I57" s="105">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="58" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="160"/>
-      <c r="B58" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="H58" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="I58" s="103">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="59" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="160"/>
+    <row r="55" spans="1:125" ht="15.75" customHeight="1">
+      <c r="A55" s="160" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="H55" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" s="103">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:125" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A56" s="161"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="90"/>
+      <c r="F56" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="H56" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" s="105">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:125" ht="15.75" customHeight="1">
+      <c r="A57" s="161"/>
+      <c r="B57" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="H57" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" s="103">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:125" ht="15.75" customHeight="1">
+      <c r="A58" s="161"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="92"/>
+      <c r="F58" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="I58" s="108">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:125" ht="15.75" customHeight="1">
+      <c r="A59" s="161"/>
       <c r="B59" s="56"/>
       <c r="C59" s="91" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D59" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59" s="92"/>
       <c r="F59" s="106" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G59" s="106" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="H59" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I59" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="60" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="160"/>
+    <row r="60" spans="1:125" ht="15.75" customHeight="1">
+      <c r="A60" s="161"/>
       <c r="B60" s="56"/>
       <c r="C60" s="91" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D60" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60" s="92"/>
       <c r="F60" s="106" t="s">
         <v>42</v>
       </c>
       <c r="G60" s="106" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H60" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I60" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="61" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="160"/>
+    <row r="61" spans="1:125" ht="15.75" customHeight="1">
+      <c r="A61" s="161"/>
       <c r="B61" s="56"/>
       <c r="C61" s="91" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D61" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61" s="92"/>
       <c r="F61" s="106" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="G61" s="106" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H61" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I61" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="62" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="160"/>
+    <row r="62" spans="1:125" ht="15.75" customHeight="1">
+      <c r="A62" s="161"/>
       <c r="B62" s="56"/>
       <c r="C62" s="91" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D62" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62" s="92"/>
       <c r="F62" s="106" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="G62" s="106" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H62" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I62" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="63" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="160"/>
+    <row r="63" spans="1:125" ht="15.75" customHeight="1">
+      <c r="A63" s="161"/>
       <c r="B63" s="56"/>
       <c r="C63" s="91" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D63" s="91" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E63" s="92"/>
       <c r="F63" s="106" t="s">
         <v>44</v>
       </c>
       <c r="G63" s="106" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H63" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I63" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="64" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="160"/>
+    <row r="64" spans="1:125" ht="15.75" customHeight="1">
+      <c r="A64" s="161"/>
       <c r="B64" s="56"/>
       <c r="C64" s="91" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D64" s="91" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E64" s="92"/>
       <c r="F64" s="106" t="s">
         <v>45</v>
       </c>
       <c r="G64" s="106" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H64" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I64" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="160"/>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A65" s="161"/>
       <c r="B65" s="56"/>
       <c r="C65" s="91" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D65" s="91" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E65" s="92"/>
       <c r="F65" s="106" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="G65" s="106" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H65" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I65" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="160"/>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A66" s="161"/>
       <c r="B66" s="56"/>
       <c r="C66" s="91" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D66" s="91" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E66" s="92"/>
       <c r="F66" s="106" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="G66" s="106" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H66" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I66" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="160"/>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A67" s="161"/>
       <c r="B67" s="56"/>
       <c r="C67" s="91" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D67" s="91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E67" s="92"/>
-      <c r="F67" s="106" t="s">
-        <v>83</v>
-      </c>
+      <c r="F67" s="106"/>
       <c r="G67" s="106" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H67" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I67" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="160"/>
+    <row r="68" spans="1:9" ht="17.45" customHeight="1">
+      <c r="A68" s="161"/>
       <c r="B68" s="56"/>
       <c r="C68" s="91" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D68" s="91" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E68" s="92"/>
-      <c r="F68" s="106"/>
+      <c r="F68" s="158" t="s">
+        <v>171</v>
+      </c>
       <c r="G68" s="106" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H68" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I68" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="160"/>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A69" s="161"/>
       <c r="B69" s="56"/>
       <c r="C69" s="91" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D69" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69" s="92"/>
-      <c r="F69" s="157" t="s">
-        <v>180</v>
-      </c>
+      <c r="F69" s="158"/>
       <c r="G69" s="106" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H69" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I69" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="160"/>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A70" s="161"/>
       <c r="B70" s="56"/>
       <c r="C70" s="91" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D70" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" s="92"/>
-      <c r="F70" s="157"/>
+      <c r="F70" s="158"/>
       <c r="G70" s="106" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H70" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I70" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="160"/>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A71" s="161"/>
       <c r="B71" s="56"/>
       <c r="C71" s="91" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D71" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E71" s="92"/>
-      <c r="F71" s="157"/>
+      <c r="F71" s="158"/>
       <c r="G71" s="106" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H71" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I71" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="160"/>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A72" s="161"/>
       <c r="B72" s="56"/>
       <c r="C72" s="91" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E72" s="92"/>
-      <c r="F72" s="157"/>
+      <c r="F72" s="158"/>
       <c r="G72" s="106" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H72" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I72" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="160"/>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A73" s="161"/>
       <c r="B73" s="56"/>
       <c r="C73" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="92"/>
+      <c r="F73" s="158"/>
+      <c r="G73" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="I73" s="108">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A74" s="161"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="90"/>
+      <c r="F74" s="159"/>
+      <c r="G74" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="H74" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I74" s="105">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A75" s="161"/>
+      <c r="B75" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="H75" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="I75" s="103">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A76" s="161"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="90"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="H76" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I76" s="105">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A77" s="161"/>
+      <c r="B77" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="92"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="106" t="s">
-        <v>194</v>
-      </c>
-      <c r="H73" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="I73" s="108">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="160"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="91" t="s">
+      <c r="C77" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="I77" s="103">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="37.9" customHeight="1">
+      <c r="A78" s="161"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="D74" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="92"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="106" t="s">
-        <v>194</v>
-      </c>
-      <c r="H74" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="I74" s="108">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="160"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="90"/>
-      <c r="F75" s="158"/>
-      <c r="G75" s="109" t="s">
-        <v>195</v>
-      </c>
-      <c r="H75" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="I75" s="105">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="160"/>
-      <c r="B76" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G76" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="H76" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="I76" s="103">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="160"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="89" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="90"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109" t="s">
-        <v>197</v>
-      </c>
-      <c r="H77" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="I77" s="105">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="160"/>
-      <c r="B78" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D78" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G78" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="H78" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="I78" s="103">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="160"/>
+      <c r="D78" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="94"/>
+      <c r="F78" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="G78" s="111"/>
+      <c r="H78" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="I78" s="108">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A79" s="161"/>
       <c r="B79" s="56"/>
       <c r="C79" s="93" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E79" s="94"/>
       <c r="F79" s="110" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="G79" s="111"/>
       <c r="H79" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I79" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="160"/>
+    <row r="80" spans="1:9" ht="45.6" customHeight="1">
+      <c r="A80" s="161"/>
       <c r="B80" s="56"/>
       <c r="C80" s="93" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E80" s="94"/>
       <c r="F80" s="110" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G80" s="111"/>
       <c r="H80" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I80" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="160"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" s="94"/>
-      <c r="F81" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="G81" s="111"/>
-      <c r="H81" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="I81" s="108">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="160"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" s="95" t="s">
+    <row r="81" spans="1:9" ht="51" customHeight="1" thickBot="1">
+      <c r="A81" s="161"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="96"/>
+      <c r="F81" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="113"/>
+      <c r="H81" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I81" s="105">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1">
+      <c r="A82" s="161"/>
+      <c r="B82" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="96"/>
-      <c r="F82" s="112" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" s="113"/>
-      <c r="H82" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="I82" s="105">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="160"/>
-      <c r="B83" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="G83" s="114"/>
-      <c r="H83" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="I83" s="103">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="160"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="I82" s="103">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="34.9" customHeight="1">
+      <c r="A83" s="161"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="111"/>
+      <c r="H83" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="I83" s="108">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A84" s="161"/>
       <c r="B84" s="56"/>
       <c r="C84" s="93" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" s="94" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="E84" s="99" t="s">
+        <v>55</v>
       </c>
       <c r="F84" s="110" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G84" s="111"/>
       <c r="H84" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I84" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="160"/>
+    <row r="85" spans="1:9" ht="29.45" customHeight="1">
+      <c r="A85" s="161"/>
       <c r="B85" s="56"/>
       <c r="C85" s="93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85" s="110" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="E85" s="94"/>
+      <c r="F85" s="115" t="s">
+        <v>191</v>
       </c>
       <c r="G85" s="111"/>
       <c r="H85" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I85" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="160"/>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A86" s="161"/>
       <c r="B86" s="56"/>
       <c r="C86" s="93" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E86" s="94"/>
-      <c r="F86" s="115" t="s">
-        <v>200</v>
+      <c r="F86" s="111" t="s">
+        <v>61</v>
       </c>
       <c r="G86" s="111"/>
       <c r="H86" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I86" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="160"/>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A87" s="161"/>
       <c r="B87" s="56"/>
       <c r="C87" s="93" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E87" s="94"/>
       <c r="F87" s="111" t="s">
@@ -9695,693 +9567,672 @@
       </c>
       <c r="G87" s="111"/>
       <c r="H87" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I87" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="160"/>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A88" s="161"/>
       <c r="B88" s="56"/>
       <c r="C88" s="93" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E88" s="94"/>
-      <c r="F88" s="111" t="s">
-        <v>65</v>
-      </c>
+      <c r="F88" s="111"/>
       <c r="G88" s="111"/>
       <c r="H88" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I88" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="160"/>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A89" s="161"/>
       <c r="B89" s="56"/>
       <c r="C89" s="93" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E89" s="94"/>
       <c r="F89" s="111"/>
       <c r="G89" s="111"/>
       <c r="H89" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I89" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="160"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="D90" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90" s="94"/>
-      <c r="F90" s="111"/>
-      <c r="G90" s="111"/>
-      <c r="H90" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="I90" s="108">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="160"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="E91" s="96"/>
-      <c r="F91" s="113"/>
-      <c r="G91" s="113"/>
-      <c r="H91" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="I91" s="105">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="160"/>
-      <c r="B92" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" s="114"/>
-      <c r="H92" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="I92" s="103">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="160"/>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="161"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="96"/>
+      <c r="F90" s="113"/>
+      <c r="G90" s="113"/>
+      <c r="H90" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I90" s="105">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A91" s="161"/>
+      <c r="B91" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="114"/>
+      <c r="H91" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="I91" s="103">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="32.450000000000003" customHeight="1">
+      <c r="A92" s="161"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="94"/>
+      <c r="F92" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="G92" s="111"/>
+      <c r="H92" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="I92" s="108">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A93" s="161"/>
       <c r="B93" s="56"/>
       <c r="C93" s="93" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E93" s="94"/>
-      <c r="F93" s="110" t="s">
-        <v>201</v>
+      <c r="F93" s="111" t="s">
+        <v>193</v>
       </c>
       <c r="G93" s="111"/>
       <c r="H93" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I93" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="160"/>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A94" s="161"/>
       <c r="B94" s="56"/>
       <c r="C94" s="93" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="D94" s="93" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E94" s="94"/>
       <c r="F94" s="111" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G94" s="111"/>
       <c r="H94" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I94" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="160"/>
-      <c r="B95" s="56"/>
-      <c r="C95" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" s="94"/>
-      <c r="F95" s="111" t="s">
-        <v>203</v>
-      </c>
-      <c r="G95" s="111"/>
-      <c r="H95" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="I95" s="108">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="160"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="D96" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="E96" s="96"/>
-      <c r="F96" s="113"/>
-      <c r="G96" s="113"/>
-      <c r="H96" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="I96" s="105">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="160"/>
-      <c r="B97" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="E97" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F97" s="100" t="s">
-        <v>201</v>
-      </c>
-      <c r="G97" s="114"/>
-      <c r="H97" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="I97" s="103">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="160"/>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A95" s="161"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" s="96"/>
+      <c r="F95" s="113"/>
+      <c r="G95" s="113"/>
+      <c r="H95" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I95" s="105">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="33" customHeight="1">
+      <c r="A96" s="161"/>
+      <c r="B96" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="G96" s="114"/>
+      <c r="H96" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="I96" s="103">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A97" s="161"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" s="94"/>
+      <c r="F97" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" s="111"/>
+      <c r="H97" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="I97" s="108">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="33.6" customHeight="1">
+      <c r="A98" s="161"/>
       <c r="B98" s="56"/>
       <c r="C98" s="93" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E98" s="94"/>
-      <c r="F98" s="111" t="s">
-        <v>62</v>
+      <c r="F98" s="115" t="s">
+        <v>195</v>
       </c>
       <c r="G98" s="111"/>
       <c r="H98" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I98" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="160"/>
+    <row r="99" spans="1:9" ht="30.6" customHeight="1">
+      <c r="A99" s="161"/>
       <c r="B99" s="56"/>
       <c r="C99" s="93" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E99" s="94"/>
       <c r="F99" s="115" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G99" s="111"/>
       <c r="H99" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I99" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="160"/>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A100" s="161"/>
       <c r="B100" s="56"/>
       <c r="C100" s="93" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E100" s="94"/>
-      <c r="F100" s="115" t="s">
-        <v>205</v>
-      </c>
+      <c r="F100" s="111"/>
       <c r="G100" s="111"/>
       <c r="H100" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I100" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="160"/>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" s="161"/>
       <c r="B101" s="56"/>
       <c r="C101" s="93" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E101" s="94"/>
       <c r="F101" s="111"/>
       <c r="G101" s="111"/>
       <c r="H101" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I101" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="160"/>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A102" s="161"/>
       <c r="B102" s="56"/>
       <c r="C102" s="93" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E102" s="94"/>
       <c r="F102" s="111"/>
       <c r="G102" s="111"/>
       <c r="H102" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I102" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="160"/>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A103" s="161"/>
       <c r="B103" s="56"/>
       <c r="C103" s="93" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E103" s="94"/>
       <c r="F103" s="111"/>
       <c r="G103" s="111"/>
       <c r="H103" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I103" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="160"/>
+    <row r="104" spans="1:9" ht="34.15" customHeight="1">
+      <c r="A104" s="161"/>
       <c r="B104" s="56"/>
       <c r="C104" s="93" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D104" s="93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E104" s="94"/>
-      <c r="F104" s="111"/>
+      <c r="F104" s="115" t="s">
+        <v>197</v>
+      </c>
       <c r="G104" s="111"/>
       <c r="H104" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I104" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="160"/>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A105" s="161"/>
       <c r="B105" s="56"/>
       <c r="C105" s="93" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D105" s="93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E105" s="94"/>
-      <c r="F105" s="115" t="s">
-        <v>206</v>
-      </c>
+      <c r="F105" s="111"/>
       <c r="G105" s="111"/>
       <c r="H105" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I105" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="160"/>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A106" s="161"/>
       <c r="B106" s="56"/>
       <c r="C106" s="93" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D106" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E106" s="94"/>
       <c r="F106" s="111"/>
       <c r="G106" s="111"/>
       <c r="H106" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I106" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="160"/>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A107" s="161"/>
       <c r="B107" s="56"/>
       <c r="C107" s="93" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D107" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E107" s="94"/>
       <c r="F107" s="111"/>
       <c r="G107" s="111"/>
       <c r="H107" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I107" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="160"/>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A108" s="161"/>
       <c r="B108" s="56"/>
       <c r="C108" s="93" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D108" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E108" s="94"/>
       <c r="F108" s="111"/>
       <c r="G108" s="111"/>
       <c r="H108" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I108" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="160"/>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A109" s="161"/>
       <c r="B109" s="56"/>
       <c r="C109" s="93" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D109" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E109" s="94"/>
       <c r="F109" s="111"/>
       <c r="G109" s="111"/>
       <c r="H109" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I109" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="160"/>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A110" s="161"/>
       <c r="B110" s="56"/>
       <c r="C110" s="93" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D110" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E110" s="94"/>
       <c r="F110" s="111"/>
       <c r="G110" s="111"/>
       <c r="H110" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I110" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="160"/>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A111" s="161"/>
       <c r="B111" s="56"/>
       <c r="C111" s="93" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D111" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E111" s="94"/>
       <c r="F111" s="111"/>
       <c r="G111" s="111"/>
       <c r="H111" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I111" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="160"/>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A112" s="161"/>
       <c r="B112" s="56"/>
       <c r="C112" s="93" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D112" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E112" s="94"/>
       <c r="F112" s="111"/>
       <c r="G112" s="111"/>
       <c r="H112" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I112" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="160"/>
+    <row r="113" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A113" s="161"/>
       <c r="B113" s="56"/>
       <c r="C113" s="93" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D113" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E113" s="94"/>
       <c r="F113" s="111"/>
       <c r="G113" s="111"/>
       <c r="H113" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I113" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="160"/>
+    <row r="114" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A114" s="161"/>
       <c r="B114" s="56"/>
       <c r="C114" s="93" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D114" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E114" s="94"/>
       <c r="F114" s="111"/>
       <c r="G114" s="111"/>
       <c r="H114" s="107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I114" s="108">
         <v>45566</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="160"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="D115" s="93" t="s">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A115" s="161"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="96"/>
+      <c r="F115" s="113"/>
+      <c r="G115" s="113"/>
+      <c r="H115" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I115" s="105">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="30" customHeight="1">
+      <c r="A116" s="161"/>
+      <c r="B116" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E115" s="94"/>
-      <c r="F115" s="111"/>
-      <c r="G115" s="111"/>
-      <c r="H115" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="I115" s="108">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="160"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="D116" s="95" t="s">
+      <c r="E116" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="G116" s="114"/>
+      <c r="H116" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="I116" s="103">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="37.15" customHeight="1" thickBot="1">
+      <c r="A117" s="161"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" s="96"/>
+      <c r="F117" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="G117" s="113"/>
+      <c r="H117" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I117" s="105">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="30" customHeight="1">
+      <c r="A118" s="161"/>
+      <c r="B118" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C118" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="96"/>
-      <c r="F116" s="113"/>
-      <c r="G116" s="113"/>
-      <c r="H116" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="I116" s="105">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="160"/>
-      <c r="B117" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="C117" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" s="100" t="s">
-        <v>201</v>
-      </c>
-      <c r="G117" s="114"/>
-      <c r="H117" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="I117" s="103">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="160"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="D118" s="95" t="s">
+      <c r="E118" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="G118" s="114"/>
+      <c r="H118" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="I118" s="103">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A119" s="162"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="E118" s="96"/>
-      <c r="F118" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="G118" s="113"/>
-      <c r="H118" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="I118" s="105">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="160"/>
-      <c r="B119" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="C119" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F119" s="100" t="s">
-        <v>201</v>
-      </c>
-      <c r="G119" s="114"/>
-      <c r="H119" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="I119" s="103">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="161"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="D120" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="96"/>
-      <c r="F120" s="113"/>
-      <c r="G120" s="113"/>
-      <c r="H120" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="I120" s="105">
+      <c r="E119" s="96"/>
+      <c r="F119" s="113"/>
+      <c r="G119" s="113"/>
+      <c r="H119" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I119" s="105">
         <v>45566</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="F69:F75"/>
-    <mergeCell ref="A56:A120"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="F68:F74"/>
+    <mergeCell ref="A55:A119"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A6:A49"/>
+    <mergeCell ref="A6:A48"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" xr:uid="{678CAB04-008E-4478-8229-89E4C5E544DE}"/>
+    <hyperlink ref="G15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
